--- a/orangeHRM.managing employee data.xlsx
+++ b/orangeHRM.managing employee data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MURALI  VINEELA\OneDrive\Desktop\opencart-vineela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E8E025-D93A-4B36-8D46-E20E395CE921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588A4B4D-35D2-41F5-8CBB-3A5D3E9A8FCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="72">
   <si>
     <t>OR-T1</t>
   </si>
@@ -220,6 +220,68 @@
   </si>
   <si>
     <t>deleting an  employee</t>
+  </si>
+  <si>
+    <t>ACTUAL RESULTS</t>
+  </si>
+  <si>
+    <t>browser is opened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is  navigated to orange HRM login page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is able to see the login section in the middle of the page </t>
+  </si>
+  <si>
+    <t>user is defaultly navigated to personal ifromation page and is able to see the 
+following tabs
+    * admin
+    * PIM 
+    * leave
+    * time
+    * benefits 
+    * recruitment
+    * reports 
+    * bugtracker
+    * help</t>
+  </si>
+  <si>
+    <t>user is able to  see employee infromation page  in personal infromation page</t>
+  </si>
+  <si>
+    <t>user is navigated to employee information section</t>
+  </si>
+  <si>
+    <t>user is able to  see the below sections for an updated employee
+    * job title
+    * employment status
+    * sub division
+    * supervisor</t>
+  </si>
+  <si>
+    <t>user is able to see the  updated records for an employee in employee infromation page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user is navigated to orange HRM login page </t>
+  </si>
+  <si>
+    <t>user is able to navigated to personal ifromation page bu default and is able to  see the following tabs
+    * admin
+    * PIM 
+    * leave
+    * time
+    * benefits 
+    * recruitment
+    * reports 
+    * bugtracker
+    * help</t>
+  </si>
+  <si>
+    <t>user is able to see employee infromation page  in personal infromation page</t>
+  </si>
+  <si>
+    <t>the selected employees are deleted from employee information page .</t>
   </si>
 </sst>
 </file>
@@ -646,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -658,10 +720,10 @@
     <col min="2" max="2" width="28.77734375" customWidth="1"/>
     <col min="3" max="4" width="29.109375" customWidth="1"/>
     <col min="5" max="5" width="74.44140625" customWidth="1"/>
-    <col min="6" max="6" width="75.33203125" customWidth="1"/>
+    <col min="6" max="7" width="75.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -680,8 +742,11 @@
       <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -700,8 +765,11 @@
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -714,8 +782,11 @@
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G3" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -728,8 +799,11 @@
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="G4" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -742,8 +816,11 @@
       <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G5" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -756,8 +833,11 @@
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -770,8 +850,11 @@
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -784,8 +867,11 @@
       <c r="F8" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -798,8 +884,11 @@
       <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -812,8 +901,11 @@
       <c r="F10" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
@@ -832,8 +924,11 @@
       <c r="F11" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G11" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -846,8 +941,11 @@
       <c r="F12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -860,8 +958,11 @@
       <c r="F13" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="G13" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -874,8 +975,11 @@
       <c r="F14" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -888,8 +992,11 @@
       <c r="F15" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -902,8 +1009,11 @@
       <c r="F16" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="G16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="78" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -916,8 +1026,11 @@
       <c r="F17" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G17" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -930,8 +1043,11 @@
       <c r="F18" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G18" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>30</v>
       </c>
@@ -950,8 +1066,11 @@
       <c r="F19" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G19" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -964,8 +1083,11 @@
       <c r="F20" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G20" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -978,8 +1100,11 @@
       <c r="F21" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="G21" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -992,8 +1117,11 @@
       <c r="F22" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1006,8 +1134,11 @@
       <c r="F23" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G23" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1020,6 +1151,9 @@
       <c r="F24" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="G24" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
